--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-20.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1628"/>
+  <dimension ref="A1:G1629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40027,7 +40027,7 @@
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
+          <t>Saturday May 10 2025</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr"/>
@@ -40040,101 +40040,89 @@
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr"/>
       <c r="C1525" t="inlineStr"/>
       <c r="D1525" t="inlineStr"/>
       <c r="E1525" t="inlineStr"/>
       <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1525" t="inlineStr"/>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>Fed Barkin Speech</t>
+        </is>
+      </c>
       <c r="C1526" t="inlineStr"/>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr"/>
       <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
+      <c r="G1526" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>Fed Kugler Speech</t>
-        </is>
-      </c>
+          <t>Monday May 12 2025</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr"/>
       <c r="C1527" t="inlineStr"/>
       <c r="D1527" t="inlineStr"/>
       <c r="E1527" t="inlineStr"/>
       <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1527" t="inlineStr"/>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:25 AM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr"/>
       <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
+      <c r="E1528" t="inlineStr"/>
       <c r="F1528" t="inlineStr"/>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr"/>
-      <c r="D1529" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1529" t="inlineStr"/>
+      <c r="D1529" t="inlineStr"/>
+      <c r="E1529" t="inlineStr">
+        <is>
+          <t>$75 million</t>
+        </is>
+      </c>
       <c r="F1529" t="inlineStr"/>
       <c r="G1529" t="inlineStr">
         <is>
@@ -40150,13 +40138,13 @@
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr"/>
       <c r="D1530" t="inlineStr">
         <is>
-          <t>4.090%</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1530" t="inlineStr"/>
@@ -40170,16 +40158,20 @@
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr"/>
-      <c r="D1531" t="inlineStr"/>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>4.090%</t>
+        </is>
+      </c>
       <c r="E1531" t="inlineStr"/>
       <c r="F1531" t="inlineStr"/>
       <c r="G1531" t="inlineStr">
@@ -40191,112 +40183,100 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr"/>
-      <c r="D1532" t="inlineStr">
-        <is>
-          <t>$-161B</t>
-        </is>
-      </c>
-      <c r="E1532" t="inlineStr">
-        <is>
-          <t>$255B</t>
-        </is>
-      </c>
-      <c r="F1532" t="inlineStr">
-        <is>
-          <t>$235.0B</t>
-        </is>
-      </c>
+      <c r="D1532" t="inlineStr"/>
+      <c r="E1532" t="inlineStr"/>
+      <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>Monthly Budget StatementAPR</t>
+        </is>
+      </c>
       <c r="C1533" t="inlineStr"/>
-      <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr"/>
-      <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>$-161B</t>
+        </is>
+      </c>
+      <c r="E1533" t="inlineStr">
+        <is>
+          <t>$255B</t>
+        </is>
+      </c>
+      <c r="F1533" t="inlineStr">
+        <is>
+          <t>$235.0B</t>
+        </is>
+      </c>
+      <c r="G1533" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1534" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexAPR</t>
-        </is>
-      </c>
+          <t>Tuesday May 13 2025</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr"/>
       <c r="C1534" t="inlineStr"/>
-      <c r="D1534" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
-      <c r="E1534" t="inlineStr">
-        <is>
-          <t>94.5</t>
-        </is>
-      </c>
-      <c r="F1534" t="inlineStr">
-        <is>
-          <t>93.5</t>
-        </is>
-      </c>
-      <c r="G1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1534" t="inlineStr"/>
+      <c r="E1534" t="inlineStr"/>
+      <c r="F1534" t="inlineStr"/>
+      <c r="G1534" t="inlineStr"/>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>NFIB Business Optimism IndexAPR</t>
         </is>
       </c>
       <c r="C1535" t="inlineStr"/>
       <c r="D1535" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>97.4</t>
         </is>
       </c>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>94.5</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>93.5</t>
         </is>
       </c>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -40308,19 +40288,23 @@
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYAPR</t>
+          <t>Core Inflation Rate MoMAPR</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr"/>
       <c r="D1536" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1536" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1536" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1536" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1536" t="inlineStr">
@@ -40337,23 +40321,19 @@
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>Core Inflation Rate YoYAPR</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr"/>
       <c r="D1537" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1537" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E1537" t="inlineStr"/>
       <c r="F1537" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G1537" t="inlineStr">
@@ -40370,23 +40350,23 @@
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>Inflation Rate MoMAPR</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr"/>
       <c r="D1538" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1538" t="inlineStr">
@@ -40403,24 +40383,28 @@
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>Inflation Rate YoYAPR</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr"/>
       <c r="D1539" t="inlineStr">
         <is>
-          <t>319.799</t>
-        </is>
-      </c>
-      <c r="E1539" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E1539" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F1539" t="inlineStr">
         <is>
-          <t>321.4</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -40432,19 +40416,19 @@
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>CPIAPR</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr"/>
       <c r="D1540" t="inlineStr">
         <is>
-          <t>319.615</t>
+          <t>319.799</t>
         </is>
       </c>
       <c r="E1540" t="inlineStr"/>
       <c r="F1540" t="inlineStr">
         <is>
-          <t>320.6</t>
+          <t>321.4</t>
         </is>
       </c>
       <c r="G1540" t="inlineStr">
@@ -40456,43 +40440,47 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>CPI s.aAPR</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr"/>
       <c r="D1541" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>319.615</t>
         </is>
       </c>
       <c r="E1541" t="inlineStr"/>
-      <c r="F1541" t="inlineStr"/>
+      <c r="F1541" t="inlineStr">
+        <is>
+          <t>320.6</t>
+        </is>
+      </c>
       <c r="G1541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:55 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>Total Household DebtQ1</t>
+          <t>Redbook YoYMAY/10</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr"/>
       <c r="D1542" t="inlineStr">
         <is>
-          <t>$18.04T</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="E1542" t="inlineStr"/>
@@ -40506,18 +40494,18 @@
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Total Household DebtQ1</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr"/>
       <c r="D1543" t="inlineStr">
         <is>
-          <t>3.820%</t>
+          <t>$18.04T</t>
         </is>
       </c>
       <c r="E1543" t="inlineStr"/>
@@ -40531,79 +40519,79 @@
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr"/>
       <c r="D1544" t="inlineStr">
         <is>
-          <t>-4.49M</t>
+          <t>3.820%</t>
         </is>
       </c>
       <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
       <c r="G1544" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeMAY/09</t>
+        </is>
+      </c>
       <c r="C1545" t="inlineStr"/>
-      <c r="D1545" t="inlineStr"/>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>-4.49M</t>
+        </is>
+      </c>
       <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
+      <c r="G1545" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr">
-        <is>
-          <t>Fed Waller Speech</t>
-        </is>
-      </c>
+          <t>Wednesday May 14 2025</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr"/>
       <c r="C1546" t="inlineStr"/>
       <c r="D1546" t="inlineStr"/>
       <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1546" t="inlineStr"/>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr"/>
-      <c r="D1547" t="inlineStr">
-        <is>
-          <t>6.84%</t>
-        </is>
-      </c>
+      <c r="D1547" t="inlineStr"/>
       <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr">
@@ -40620,20 +40608,20 @@
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>MBA 30-Year Mortgage RateMAY/09</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr"/>
       <c r="D1548" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>6.84%</t>
         </is>
       </c>
       <c r="E1548" t="inlineStr"/>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -40645,13 +40633,13 @@
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>MBA Mortgage ApplicationsMAY/09</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr"/>
       <c r="D1549" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="E1549" t="inlineStr"/>
@@ -40670,13 +40658,13 @@
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>MBA Mortgage Market IndexMAY/09</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr"/>
       <c r="D1550" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>248.4</t>
         </is>
       </c>
       <c r="E1550" t="inlineStr"/>
@@ -40695,13 +40683,13 @@
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>MBA Mortgage Refinance IndexMAY/09</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr"/>
       <c r="D1551" t="inlineStr">
         <is>
-          <t>162.8</t>
+          <t>721</t>
         </is>
       </c>
       <c r="E1551" t="inlineStr"/>
@@ -40715,41 +40703,41 @@
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>08:10 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>Fed Jefferson Speech</t>
+          <t>MBA Purchase IndexMAY/09</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr"/>
-      <c r="D1552" t="inlineStr"/>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>162.8</t>
+        </is>
+      </c>
       <c r="E1552" t="inlineStr"/>
       <c r="F1552" t="inlineStr"/>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>08:10 AM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
+          <t>Fed Jefferson Speech</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr"/>
-      <c r="D1553" t="inlineStr">
-        <is>
-          <t>-2.032M</t>
-        </is>
-      </c>
+      <c r="D1553" t="inlineStr"/>
       <c r="E1553" t="inlineStr"/>
       <c r="F1553" t="inlineStr"/>
       <c r="G1553" t="inlineStr">
@@ -40766,13 +40754,13 @@
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr"/>
       <c r="D1554" t="inlineStr">
         <is>
-          <t>0.188M</t>
+          <t>-2.032M</t>
         </is>
       </c>
       <c r="E1554" t="inlineStr"/>
@@ -40791,20 +40779,20 @@
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>EIA Gasoline Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr"/>
       <c r="D1555" t="inlineStr">
         <is>
-          <t>0.673M</t>
+          <t>0.188M</t>
         </is>
       </c>
       <c r="E1555" t="inlineStr"/>
       <c r="F1555" t="inlineStr"/>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -40816,13 +40804,13 @@
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+          <t>EIA Crude Oil Imports ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr"/>
       <c r="D1556" t="inlineStr">
         <is>
-          <t>-0.74M</t>
+          <t>0.673M</t>
         </is>
       </c>
       <c r="E1556" t="inlineStr"/>
@@ -40841,13 +40829,13 @@
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr"/>
       <c r="D1557" t="inlineStr">
         <is>
-          <t>0.041M</t>
+          <t>-0.74M</t>
         </is>
       </c>
       <c r="E1557" t="inlineStr"/>
@@ -40866,13 +40854,13 @@
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr"/>
       <c r="D1558" t="inlineStr">
         <is>
-          <t>-1.107M</t>
+          <t>0.041M</t>
         </is>
       </c>
       <c r="E1558" t="inlineStr"/>
@@ -40891,13 +40879,13 @@
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
+          <t>EIA Distillate Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr"/>
       <c r="D1559" t="inlineStr">
         <is>
-          <t>0.253M</t>
+          <t>-1.107M</t>
         </is>
       </c>
       <c r="E1559" t="inlineStr"/>
@@ -40916,13 +40904,13 @@
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
+          <t>EIA Gasoline Production ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr"/>
       <c r="D1560" t="inlineStr">
         <is>
-          <t>0.123M</t>
+          <t>0.253M</t>
         </is>
       </c>
       <c r="E1560" t="inlineStr"/>
@@ -40941,13 +40929,13 @@
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr"/>
       <c r="D1561" t="inlineStr">
         <is>
-          <t>-0.007M</t>
+          <t>0.123M</t>
         </is>
       </c>
       <c r="E1561" t="inlineStr"/>
@@ -40961,18 +40949,18 @@
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr"/>
       <c r="D1562" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>-0.007M</t>
         </is>
       </c>
       <c r="E1562" t="inlineStr"/>
@@ -40986,69 +40974,61 @@
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr"/>
-      <c r="D1563" t="inlineStr"/>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>4.200%</t>
+        </is>
+      </c>
       <c r="E1563" t="inlineStr"/>
       <c r="F1563" t="inlineStr"/>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1564" t="inlineStr"/>
+          <t>04:40 PM</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>Fed Daly Speech</t>
+        </is>
+      </c>
       <c r="C1564" t="inlineStr"/>
       <c r="D1564" t="inlineStr"/>
       <c r="E1564" t="inlineStr"/>
       <c r="F1564" t="inlineStr"/>
-      <c r="G1564" t="inlineStr"/>
+      <c r="G1564" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>PPI MoMAPR</t>
-        </is>
-      </c>
+          <t>Thursday May 15 2025</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr"/>
       <c r="C1565" t="inlineStr"/>
-      <c r="D1565" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1565" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1565" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1565" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D1565" t="inlineStr"/>
+      <c r="E1565" t="inlineStr"/>
+      <c r="F1565" t="inlineStr"/>
+      <c r="G1565" t="inlineStr"/>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
@@ -41058,23 +41038,23 @@
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>Retail Sales MoMAPR</t>
+          <t>PPI MoMAPR</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr"/>
       <c r="D1566" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1566" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1566" t="inlineStr">
@@ -41091,28 +41071,28 @@
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>Core PPI MoMAPR</t>
+          <t>Retail Sales MoMAPR</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr"/>
       <c r="D1567" t="inlineStr">
         <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="E1567" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="E1567" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -41124,23 +41104,23 @@
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
+          <t>Core PPI MoMAPR</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr"/>
       <c r="D1568" t="inlineStr">
         <is>
-          <t>228K</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>230K</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1568" t="inlineStr">
         <is>
-          <t>220.0K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1568" t="inlineStr">
@@ -41157,23 +41137,23 @@
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
+          <t>Initial Jobless ClaimsMAY/10</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr"/>
       <c r="D1569" t="inlineStr">
         <is>
-          <t>-8.10</t>
+          <t>228K</t>
         </is>
       </c>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>230K</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr">
         <is>
-          <t>-7.6</t>
+          <t>220.0K</t>
         </is>
       </c>
       <c r="G1569" t="inlineStr">
@@ -41190,23 +41170,23 @@
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
+          <t>NY Empire State Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr"/>
       <c r="D1570" t="inlineStr">
         <is>
-          <t>-26.4</t>
+          <t>-8.10</t>
         </is>
       </c>
       <c r="E1570" t="inlineStr">
         <is>
-          <t>-8.5</t>
+          <t>-7.1</t>
         </is>
       </c>
       <c r="F1570" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-7.6</t>
         </is>
       </c>
       <c r="G1570" t="inlineStr">
@@ -41223,19 +41203,23 @@
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMAPR</t>
+          <t>Philadelphia Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr"/>
       <c r="D1571" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1571" t="inlineStr"/>
+          <t>-26.4</t>
+        </is>
+      </c>
+      <c r="E1571" t="inlineStr">
+        <is>
+          <t>-8.5</t>
+        </is>
+      </c>
       <c r="F1571" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="G1571" t="inlineStr">
@@ -41252,23 +41236,19 @@
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
+          <t>Retail Sales Control Group MoMAPR</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr"/>
       <c r="D1572" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1572" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E1572" t="inlineStr"/>
       <c r="F1572" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1572" t="inlineStr">
@@ -41285,24 +41265,28 @@
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
+          <t>Retail Sales Ex Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr"/>
       <c r="D1573" t="inlineStr">
         <is>
-          <t>1879K</t>
-        </is>
-      </c>
-      <c r="E1573" t="inlineStr"/>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="E1573" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1573" t="inlineStr">
         <is>
-          <t>1875.0K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41314,19 +41298,19 @@
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>Core PPI YoYAPR</t>
+          <t>Continuing Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr"/>
       <c r="D1574" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1879K</t>
         </is>
       </c>
       <c r="E1574" t="inlineStr"/>
       <c r="F1574" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1875.0K</t>
         </is>
       </c>
       <c r="G1574" t="inlineStr">
@@ -41343,19 +41327,19 @@
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
+          <t>Core PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr"/>
       <c r="D1575" t="inlineStr">
         <is>
-          <t>227K</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E1575" t="inlineStr"/>
       <c r="F1575" t="inlineStr">
         <is>
-          <t>225.0K</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1575" t="inlineStr">
@@ -41372,17 +41356,21 @@
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsMAY</t>
+          <t>Jobless Claims 4-week AverageMAY/10</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr"/>
       <c r="D1576" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>227K</t>
         </is>
       </c>
       <c r="E1576" t="inlineStr"/>
-      <c r="F1576" t="inlineStr"/>
+      <c r="F1576" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
       <c r="G1576" t="inlineStr">
         <is>
           <t>3</t>
@@ -41397,13 +41385,13 @@
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
+          <t>Philly Fed Business ConditionsMAY</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr"/>
       <c r="D1577" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="E1577" t="inlineStr"/>
@@ -41422,13 +41410,13 @@
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentMAY</t>
+          <t>Philly Fed CAPEX IndexMAY</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr"/>
       <c r="D1578" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E1578" t="inlineStr"/>
@@ -41447,13 +41435,13 @@
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersMAY</t>
+          <t>Philly Fed EmploymentMAY</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr"/>
       <c r="D1579" t="inlineStr">
         <is>
-          <t>-34.2</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E1579" t="inlineStr"/>
@@ -41472,13 +41460,13 @@
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidMAY</t>
+          <t>Philly Fed New OrdersMAY</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr"/>
       <c r="D1580" t="inlineStr">
         <is>
-          <t>51.00</t>
+          <t>-34.2</t>
         </is>
       </c>
       <c r="E1580" t="inlineStr"/>
@@ -41497,21 +41485,17 @@
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>PPIAPR</t>
+          <t>Philly Fed Prices PaidMAY</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr"/>
       <c r="D1581" t="inlineStr">
         <is>
-          <t>147.464</t>
+          <t>51.00</t>
         </is>
       </c>
       <c r="E1581" t="inlineStr"/>
-      <c r="F1581" t="inlineStr">
-        <is>
-          <t>147.76</t>
-        </is>
-      </c>
+      <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="inlineStr">
         <is>
           <t>3</t>
@@ -41526,19 +41510,19 @@
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
+          <t>PPIAPR</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr"/>
       <c r="D1582" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>147.464</t>
         </is>
       </c>
       <c r="E1582" t="inlineStr"/>
       <c r="F1582" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>147.76</t>
         </is>
       </c>
       <c r="G1582" t="inlineStr">
@@ -41555,19 +41539,19 @@
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr"/>
       <c r="D1583" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E1583" t="inlineStr"/>
       <c r="F1583" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1583" t="inlineStr">
@@ -41584,19 +41568,19 @@
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>PPI YoYAPR</t>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr"/>
       <c r="D1584" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E1584" t="inlineStr"/>
       <c r="F1584" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G1584" t="inlineStr">
@@ -41613,19 +41597,19 @@
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr"/>
       <c r="D1585" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="E1585" t="inlineStr"/>
       <c r="F1585" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="G1585" t="inlineStr">
@@ -41642,19 +41626,19 @@
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>Retail Sales YoYAPR</t>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr"/>
       <c r="D1586" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1586" t="inlineStr"/>
       <c r="F1586" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G1586" t="inlineStr">
@@ -41666,51 +41650,47 @@
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>07:40 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>Retail Sales YoYAPR</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr"/>
-      <c r="D1587" t="inlineStr"/>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="E1587" t="inlineStr"/>
-      <c r="F1587" t="inlineStr"/>
+      <c r="F1587" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>07:40 AM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Industrial Production MoMAPR</t>
+          <t>Fed Chair Powell Speech</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr"/>
-      <c r="D1588" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1588" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1588" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="D1588" t="inlineStr"/>
+      <c r="E1588" t="inlineStr"/>
+      <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
           <t>2</t>
@@ -41725,28 +41705,28 @@
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>Capacity UtilizationAPR</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr"/>
       <c r="D1589" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -41758,19 +41738,23 @@
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>Industrial Production YoYAPR</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr"/>
       <c r="D1590" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E1590" t="inlineStr"/>
+          <t>77.8%</t>
+        </is>
+      </c>
+      <c r="E1590" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="F1590" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="G1590" t="inlineStr">
@@ -41787,19 +41771,19 @@
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMAPR</t>
+          <t>Industrial Production YoYAPR</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr"/>
       <c r="D1591" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E1591" t="inlineStr"/>
       <c r="F1591" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="G1591" t="inlineStr">
@@ -41816,19 +41800,19 @@
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYAPR</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr"/>
       <c r="D1592" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1592" t="inlineStr"/>
       <c r="F1592" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1592" t="inlineStr">
@@ -41840,33 +41824,29 @@
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>Business Inventories MoMMAR</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr"/>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1593" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="E1593" t="inlineStr"/>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -41878,23 +41858,23 @@
       </c>
       <c r="B1594" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexMAY</t>
+          <t>Business Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1594" t="inlineStr"/>
       <c r="D1594" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1594" t="inlineStr">
@@ -41911,50 +41891,58 @@
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
+          <t>NAHB Housing Market IndexMAY</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr"/>
       <c r="D1595" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr"/>
       <c r="D1596" t="inlineStr">
         <is>
-          <t>104Bcf</t>
-        </is>
-      </c>
-      <c r="E1596" t="inlineStr"/>
-      <c r="F1596" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1596" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1596" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1596" t="inlineStr">
         <is>
           <t>3</t>
@@ -41964,18 +41952,18 @@
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr"/>
       <c r="D1597" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>104Bcf</t>
         </is>
       </c>
       <c r="E1597" t="inlineStr"/>
@@ -41994,7 +41982,7 @@
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr"/>
@@ -42014,18 +42002,18 @@
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAY/15</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr"/>
       <c r="D1599" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E1599" t="inlineStr"/>
@@ -42044,13 +42032,13 @@
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAY/15</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr"/>
       <c r="D1600" t="inlineStr">
         <is>
-          <t>6.76%</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="E1600" t="inlineStr"/>
@@ -42069,11 +42057,15 @@
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>30-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr"/>
-      <c r="D1601" t="inlineStr"/>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>6.76%</t>
+        </is>
+      </c>
       <c r="E1601" t="inlineStr"/>
       <c r="F1601" t="inlineStr"/>
       <c r="G1601" t="inlineStr">
@@ -42085,12 +42077,12 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>01:05 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr"/>
@@ -42099,80 +42091,68 @@
       <c r="F1602" t="inlineStr"/>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>01:05 PM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/14</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr"/>
-      <c r="D1603" t="inlineStr">
-        <is>
-          <t>$6.71T</t>
-        </is>
-      </c>
+      <c r="D1603" t="inlineStr"/>
       <c r="E1603" t="inlineStr"/>
       <c r="F1603" t="inlineStr"/>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B1604" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetMAY/14</t>
+        </is>
+      </c>
       <c r="C1604" t="inlineStr"/>
-      <c r="D1604" t="inlineStr"/>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>$6.71T</t>
+        </is>
+      </c>
       <c r="E1604" t="inlineStr"/>
       <c r="F1604" t="inlineStr"/>
-      <c r="G1604" t="inlineStr"/>
+      <c r="G1604" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1605" t="inlineStr">
-        <is>
-          <t>Building Permits PrelAPR</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr"/>
       <c r="C1605" t="inlineStr"/>
-      <c r="D1605" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E1605" t="inlineStr">
-        <is>
-          <t>1.450M</t>
-        </is>
-      </c>
-      <c r="F1605" t="inlineStr">
-        <is>
-          <t>1.45M</t>
-        </is>
-      </c>
-      <c r="G1605" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D1605" t="inlineStr"/>
+      <c r="E1605" t="inlineStr"/>
+      <c r="F1605" t="inlineStr"/>
+      <c r="G1605" t="inlineStr"/>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
@@ -42182,23 +42162,23 @@
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>Housing StartsAPR</t>
+          <t>Building Permits PrelAPR</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr"/>
       <c r="D1606" t="inlineStr">
         <is>
-          <t>1.324M</t>
+          <t>1.467M</t>
         </is>
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>1.36M</t>
+          <t>1.450M</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>1.31M</t>
+          <t>1.45M</t>
         </is>
       </c>
       <c r="G1606" t="inlineStr">
@@ -42215,24 +42195,28 @@
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelAPR</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr"/>
       <c r="D1607" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1607" t="inlineStr"/>
+          <t>1.324M</t>
+        </is>
+      </c>
+      <c r="E1607" t="inlineStr">
+        <is>
+          <t>1.36M</t>
+        </is>
+      </c>
       <c r="F1607" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42244,19 +42228,19 @@
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>Export Prices MoMAPR</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr"/>
       <c r="D1608" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1608" t="inlineStr"/>
       <c r="F1608" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="G1608" t="inlineStr">
@@ -42273,19 +42257,19 @@
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>Housing Starts MoMAPR</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr"/>
       <c r="D1609" t="inlineStr">
         <is>
-          <t>-11.4%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1609" t="inlineStr"/>
       <c r="F1609" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1609" t="inlineStr">
@@ -42302,23 +42286,19 @@
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>Import Prices MoMAPR</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr"/>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1610" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+          <t>-11.4%</t>
+        </is>
+      </c>
+      <c r="E1610" t="inlineStr"/>
       <c r="F1610" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="G1610" t="inlineStr">
@@ -42335,24 +42315,28 @@
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>Export Prices YoYAPR</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr"/>
       <c r="D1611" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1611" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E1611" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F1611" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -42364,19 +42348,19 @@
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>Import Prices YoYAPR</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr"/>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1612" t="inlineStr"/>
       <c r="F1612" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="G1612" t="inlineStr">
@@ -42388,33 +42372,29 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1613" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1613" t="inlineStr"/>
       <c r="F1613" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -42426,24 +42406,28 @@
       </c>
       <c r="B1614" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1614" t="inlineStr"/>
       <c r="D1614" t="inlineStr">
         <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1614" t="inlineStr"/>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
       <c r="F1614" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -42455,19 +42439,19 @@
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr"/>
       <c r="D1615" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1615" t="inlineStr"/>
       <c r="F1615" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G1615" t="inlineStr">
@@ -42484,19 +42468,19 @@
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAY</t>
+          <t>Michigan Consumer Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr"/>
       <c r="D1616" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1616" t="inlineStr"/>
       <c r="F1616" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G1616" t="inlineStr">
@@ -42513,19 +42497,19 @@
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr"/>
       <c r="D1617" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1617" t="inlineStr"/>
       <c r="F1617" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="G1617" t="inlineStr">
@@ -42537,22 +42521,26 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr"/>
       <c r="D1618" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E1618" t="inlineStr"/>
-      <c r="F1618" t="inlineStr"/>
+      <c r="F1618" t="inlineStr">
+        <is>
+          <t>6.6%</t>
+        </is>
+      </c>
       <c r="G1618" t="inlineStr">
         <is>
           <t>3</t>
@@ -42567,13 +42555,13 @@
       </c>
       <c r="B1619" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1619" t="inlineStr"/>
       <c r="D1619" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>474</t>
         </is>
       </c>
       <c r="E1619" t="inlineStr"/>
@@ -42587,25 +42575,25 @@
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsMAR</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1620" t="inlineStr"/>
       <c r="D1620" t="inlineStr">
         <is>
-          <t>$112B</t>
+          <t>578</t>
         </is>
       </c>
       <c r="E1620" t="inlineStr"/>
       <c r="F1620" t="inlineStr"/>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -42617,20 +42605,20 @@
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentMAR</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr"/>
       <c r="D1621" t="inlineStr">
         <is>
-          <t>$106.2B</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E1621" t="inlineStr"/>
       <c r="F1621" t="inlineStr"/>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -42642,13 +42630,13 @@
       </c>
       <c r="B1622" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsMAR</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C1622" t="inlineStr"/>
       <c r="D1622" t="inlineStr">
         <is>
-          <t>$284.7B</t>
+          <t>$106.2B</t>
         </is>
       </c>
       <c r="E1622" t="inlineStr"/>
@@ -42662,20 +42650,32 @@
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>Sunday May 18 2025</t>
-        </is>
-      </c>
-      <c r="B1623" t="inlineStr"/>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsMAR</t>
+        </is>
+      </c>
       <c r="C1623" t="inlineStr"/>
-      <c r="D1623" t="inlineStr"/>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>$284.7B</t>
+        </is>
+      </c>
       <c r="E1623" t="inlineStr"/>
       <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr"/>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>Monday May 19 2025</t>
+          <t>Sunday May 18 2025</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr"/>
@@ -42688,47 +42688,39 @@
     <row r="1625">
       <c r="A1625" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMAPR</t>
-        </is>
-      </c>
+          <t>Monday May 19 2025</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr"/>
       <c r="C1625" t="inlineStr"/>
-      <c r="D1625" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="D1625" t="inlineStr"/>
       <c r="E1625" t="inlineStr"/>
-      <c r="F1625" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1625" t="inlineStr"/>
+      <c r="G1625" t="inlineStr"/>
     </row>
     <row r="1626">
       <c r="A1626" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1626" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>CB Leading Index MoMAPR</t>
         </is>
       </c>
       <c r="C1626" t="inlineStr"/>
-      <c r="D1626" t="inlineStr"/>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="E1626" t="inlineStr"/>
-      <c r="F1626" t="inlineStr"/>
+      <c r="F1626" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G1626" t="inlineStr">
         <is>
           <t>3</t>
@@ -42743,7 +42735,7 @@
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr"/>
@@ -42759,15 +42751,36 @@
     <row r="1628">
       <c r="A1628" t="inlineStr">
         <is>
-          <t>Tuesday May 20 2025</t>
-        </is>
-      </c>
-      <c r="B1628" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C1628" t="inlineStr"/>
       <c r="D1628" t="inlineStr"/>
       <c r="E1628" t="inlineStr"/>
       <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr"/>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>Tuesday May 20 2025</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr"/>
+      <c r="C1629" t="inlineStr"/>
+      <c r="D1629" t="inlineStr"/>
+      <c r="E1629" t="inlineStr"/>
+      <c r="F1629" t="inlineStr"/>
+      <c r="G1629" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-20.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1629"/>
+  <dimension ref="A1:G1618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39780,54 +39780,38 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>05:15 AM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
+          <t>Saturday May 10 2025</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr"/>
       <c r="C1513" t="inlineStr"/>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr"/>
       <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1513" t="inlineStr"/>
     </row>
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>Fed Barr Speech</t>
-        </is>
-      </c>
+          <t>Sunday May 11 2025</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr"/>
       <c r="C1514" t="inlineStr"/>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1514" t="inlineStr"/>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr"/>
@@ -39843,33 +39827,25 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
+          <t>Monday May 12 2025</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr"/>
       <c r="C1516" t="inlineStr"/>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr"/>
       <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1516" t="inlineStr"/>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:25 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr"/>
@@ -39885,43 +39861,43 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr"/>
       <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr"/>
+      <c r="E1518" t="inlineStr">
+        <is>
+          <t>$75 million</t>
+        </is>
+      </c>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr">
-        <is>
-          <t>474</t>
-        </is>
-      </c>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1519" t="inlineStr"/>
       <c r="D1519" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1519" t="inlineStr"/>
@@ -39935,22 +39911,18 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/09</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr">
-        <is>
-          <t>578</t>
-        </is>
-      </c>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C1520" t="inlineStr"/>
       <c r="D1520" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>4.090%</t>
         </is>
       </c>
       <c r="E1520" t="inlineStr"/>
@@ -39964,12 +39936,12 @@
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr"/>
@@ -39978,25 +39950,37 @@
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Monthly Budget StatementAPR</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr"/>
-      <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr"/>
-      <c r="F1522" t="inlineStr"/>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>$-161B</t>
+        </is>
+      </c>
+      <c r="E1522" t="inlineStr">
+        <is>
+          <t>$255B</t>
+        </is>
+      </c>
+      <c r="F1522" t="inlineStr">
+        <is>
+          <t>$235.0B</t>
+        </is>
+      </c>
       <c r="G1522" t="inlineStr">
         <is>
           <t>2</t>
@@ -40006,170 +39990,250 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
+          <t>Tuesday May 13 2025</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr"/>
       <c r="C1523" t="inlineStr"/>
       <c r="D1523" t="inlineStr"/>
       <c r="E1523" t="inlineStr"/>
       <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1523" t="inlineStr"/>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>Saturday May 10 2025</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexAPR</t>
+        </is>
+      </c>
       <c r="C1524" t="inlineStr"/>
-      <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr"/>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>97.4</t>
+        </is>
+      </c>
+      <c r="E1524" t="inlineStr">
+        <is>
+          <t>94.5</t>
+        </is>
+      </c>
+      <c r="F1524" t="inlineStr">
+        <is>
+          <t>93.5</t>
+        </is>
+      </c>
+      <c r="G1524" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>Sunday May 11 2025</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate MoMAPR</t>
+        </is>
+      </c>
       <c r="C1525" t="inlineStr"/>
-      <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1525" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1525" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1525" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Core Inflation Rate YoYAPR</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr"/>
-      <c r="D1526" t="inlineStr"/>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="E1526" t="inlineStr"/>
-      <c r="F1526" t="inlineStr"/>
+      <c r="F1526" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>Monday May 12 2025</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>Inflation Rate MoMAPR</t>
+        </is>
+      </c>
       <c r="C1527" t="inlineStr"/>
-      <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr"/>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1527" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G1527" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Inflation Rate YoYAPR</t>
         </is>
       </c>
       <c r="C1528" t="inlineStr"/>
-      <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr"/>
-      <c r="F1528" t="inlineStr"/>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E1528" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F1528" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>CPIAPR</t>
         </is>
       </c>
       <c r="C1529" t="inlineStr"/>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>$75 million</t>
-        </is>
-      </c>
-      <c r="F1529" t="inlineStr"/>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>319.799</t>
+        </is>
+      </c>
+      <c r="E1529" t="inlineStr"/>
+      <c r="F1529" t="inlineStr">
+        <is>
+          <t>321.4</t>
+        </is>
+      </c>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>CPI s.aAPR</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr"/>
       <c r="D1530" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>319.615</t>
         </is>
       </c>
       <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
+      <c r="F1530" t="inlineStr">
+        <is>
+          <t>320.6</t>
+        </is>
+      </c>
       <c r="G1530" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1531">
       <c r="A1531" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:55 AM</t>
         </is>
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Redbook YoYMAY/10</t>
         </is>
       </c>
       <c r="C1531" t="inlineStr"/>
       <c r="D1531" t="inlineStr">
         <is>
-          <t>4.090%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="E1531" t="inlineStr"/>
@@ -40183,16 +40247,20 @@
     <row r="1532">
       <c r="A1532" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Total Household DebtQ1</t>
         </is>
       </c>
       <c r="C1532" t="inlineStr"/>
-      <c r="D1532" t="inlineStr"/>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>$18.04T</t>
+        </is>
+      </c>
       <c r="E1532" t="inlineStr"/>
       <c r="F1532" t="inlineStr"/>
       <c r="G1532" t="inlineStr">
@@ -40204,442 +40272,398 @@
     <row r="1533">
       <c r="A1533" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementAPR</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr"/>
       <c r="D1533" t="inlineStr">
         <is>
-          <t>$-161B</t>
-        </is>
-      </c>
-      <c r="E1533" t="inlineStr">
-        <is>
-          <t>$255B</t>
-        </is>
-      </c>
-      <c r="F1533" t="inlineStr">
-        <is>
-          <t>$235.0B</t>
-        </is>
-      </c>
+          <t>3.820%</t>
+        </is>
+      </c>
+      <c r="E1533" t="inlineStr"/>
+      <c r="F1533" t="inlineStr"/>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1534">
       <c r="A1534" t="inlineStr">
         <is>
-          <t>Tuesday May 13 2025</t>
-        </is>
-      </c>
-      <c r="B1534" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>API Crude Oil Stock ChangeMAY/09</t>
+        </is>
+      </c>
       <c r="C1534" t="inlineStr"/>
-      <c r="D1534" t="inlineStr"/>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>-4.49M</t>
+        </is>
+      </c>
       <c r="E1534" t="inlineStr"/>
       <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
+      <c r="G1534" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1535">
       <c r="A1535" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1535" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexAPR</t>
-        </is>
-      </c>
+          <t>Wednesday May 14 2025</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr"/>
       <c r="C1535" t="inlineStr"/>
-      <c r="D1535" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
-      <c r="E1535" t="inlineStr">
-        <is>
-          <t>94.5</t>
-        </is>
-      </c>
-      <c r="F1535" t="inlineStr">
-        <is>
-          <t>93.5</t>
-        </is>
-      </c>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1535" t="inlineStr"/>
+      <c r="E1535" t="inlineStr"/>
+      <c r="F1535" t="inlineStr"/>
+      <c r="G1535" t="inlineStr"/>
     </row>
     <row r="1536">
       <c r="A1536" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>04:15 AM</t>
         </is>
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMAPR</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C1536" t="inlineStr"/>
-      <c r="D1536" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1536" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1536" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1536" t="inlineStr"/>
+      <c r="E1536" t="inlineStr"/>
+      <c r="F1536" t="inlineStr"/>
       <c r="G1536" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1537">
       <c r="A1537" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYAPR</t>
+          <t>MBA 30-Year Mortgage RateMAY/09</t>
         </is>
       </c>
       <c r="C1537" t="inlineStr"/>
       <c r="D1537" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.84%</t>
         </is>
       </c>
       <c r="E1537" t="inlineStr"/>
-      <c r="F1537" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F1537" t="inlineStr"/>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMAPR</t>
+          <t>MBA Mortgage ApplicationsMAY/09</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr"/>
       <c r="D1538" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1538" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1538" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="E1538" t="inlineStr"/>
+      <c r="F1538" t="inlineStr"/>
       <c r="G1538" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYAPR</t>
+          <t>MBA Mortgage Market IndexMAY/09</t>
         </is>
       </c>
       <c r="C1539" t="inlineStr"/>
       <c r="D1539" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1539" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1539" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>248.4</t>
+        </is>
+      </c>
+      <c r="E1539" t="inlineStr"/>
+      <c r="F1539" t="inlineStr"/>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1540">
       <c r="A1540" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>CPIAPR</t>
+          <t>MBA Mortgage Refinance IndexMAY/09</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr"/>
       <c r="D1540" t="inlineStr">
         <is>
-          <t>319.799</t>
+          <t>721</t>
         </is>
       </c>
       <c r="E1540" t="inlineStr"/>
-      <c r="F1540" t="inlineStr">
-        <is>
-          <t>321.4</t>
-        </is>
-      </c>
+      <c r="F1540" t="inlineStr"/>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>CPI s.aAPR</t>
+          <t>MBA Purchase IndexMAY/09</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr"/>
       <c r="D1541" t="inlineStr">
         <is>
-          <t>319.615</t>
+          <t>162.8</t>
         </is>
       </c>
       <c r="E1541" t="inlineStr"/>
-      <c r="F1541" t="inlineStr">
-        <is>
-          <t>320.6</t>
-        </is>
-      </c>
+      <c r="F1541" t="inlineStr"/>
       <c r="G1541" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1542">
       <c r="A1542" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>08:10 AM</t>
         </is>
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/10</t>
+          <t>Fed Jefferson Speech</t>
         </is>
       </c>
       <c r="C1542" t="inlineStr"/>
-      <c r="D1542" t="inlineStr">
-        <is>
-          <t>6.9%</t>
-        </is>
-      </c>
+      <c r="D1542" t="inlineStr"/>
       <c r="E1542" t="inlineStr"/>
       <c r="F1542" t="inlineStr"/>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1543">
       <c r="A1543" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Total Household DebtQ1</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1543" t="inlineStr"/>
       <c r="D1543" t="inlineStr">
         <is>
-          <t>$18.04T</t>
+          <t>-2.032M</t>
         </is>
       </c>
       <c r="E1543" t="inlineStr"/>
       <c r="F1543" t="inlineStr"/>
       <c r="G1543" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>EIA Gasoline Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1544" t="inlineStr"/>
       <c r="D1544" t="inlineStr">
         <is>
-          <t>3.820%</t>
+          <t>0.188M</t>
         </is>
       </c>
       <c r="E1544" t="inlineStr"/>
       <c r="F1544" t="inlineStr"/>
       <c r="G1544" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/09</t>
+          <t>EIA Crude Oil Imports ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1545" t="inlineStr"/>
       <c r="D1545" t="inlineStr">
         <is>
-          <t>-4.49M</t>
+          <t>0.673M</t>
         </is>
       </c>
       <c r="E1545" t="inlineStr"/>
       <c r="F1545" t="inlineStr"/>
       <c r="G1545" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>Wednesday May 14 2025</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+        </is>
+      </c>
       <c r="C1546" t="inlineStr"/>
-      <c r="D1546" t="inlineStr"/>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>-0.74M</t>
+        </is>
+      </c>
       <c r="E1546" t="inlineStr"/>
       <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>04:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr"/>
-      <c r="D1547" t="inlineStr"/>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>0.041M</t>
+        </is>
+      </c>
       <c r="E1547" t="inlineStr"/>
       <c r="F1547" t="inlineStr"/>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/09</t>
+          <t>EIA Distillate Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr"/>
       <c r="D1548" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>-1.107M</t>
         </is>
       </c>
       <c r="E1548" t="inlineStr"/>
       <c r="F1548" t="inlineStr"/>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/09</t>
+          <t>EIA Gasoline Production ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1549" t="inlineStr"/>
       <c r="D1549" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>0.253M</t>
         </is>
       </c>
       <c r="E1549" t="inlineStr"/>
@@ -40653,18 +40677,18 @@
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/09</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr"/>
       <c r="D1550" t="inlineStr">
         <is>
-          <t>248.4</t>
+          <t>0.123M</t>
         </is>
       </c>
       <c r="E1550" t="inlineStr"/>
@@ -40678,18 +40702,18 @@
     <row r="1551">
       <c r="A1551" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/09</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1551" t="inlineStr"/>
       <c r="D1551" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>-0.007M</t>
         </is>
       </c>
       <c r="E1551" t="inlineStr"/>
@@ -40703,18 +40727,18 @@
     <row r="1552">
       <c r="A1552" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1552" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/09</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1552" t="inlineStr"/>
       <c r="D1552" t="inlineStr">
         <is>
-          <t>162.8</t>
+          <t>4.200%</t>
         </is>
       </c>
       <c r="E1552" t="inlineStr"/>
@@ -40728,12 +40752,12 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>08:10 AM</t>
+          <t>04:40 PM</t>
         </is>
       </c>
       <c r="B1553" t="inlineStr">
         <is>
-          <t>Fed Jefferson Speech</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="C1553" t="inlineStr"/>
@@ -40749,247 +40773,299 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1554" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/09</t>
-        </is>
-      </c>
+          <t>Thursday May 15 2025</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr"/>
       <c r="C1554" t="inlineStr"/>
-      <c r="D1554" t="inlineStr">
-        <is>
-          <t>-2.032M</t>
-        </is>
-      </c>
+      <c r="D1554" t="inlineStr"/>
       <c r="E1554" t="inlineStr"/>
       <c r="F1554" t="inlineStr"/>
-      <c r="G1554" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1554" t="inlineStr"/>
     </row>
     <row r="1555">
       <c r="A1555" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/09</t>
+          <t>PPI MoMAPR</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr"/>
       <c r="D1555" t="inlineStr">
         <is>
-          <t>0.188M</t>
-        </is>
-      </c>
-      <c r="E1555" t="inlineStr"/>
-      <c r="F1555" t="inlineStr"/>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="E1555" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F1555" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1556" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/09</t>
+          <t>Retail Sales MoMAPR</t>
         </is>
       </c>
       <c r="C1556" t="inlineStr"/>
       <c r="D1556" t="inlineStr">
         <is>
-          <t>0.673M</t>
-        </is>
-      </c>
-      <c r="E1556" t="inlineStr"/>
-      <c r="F1556" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="E1556" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1556" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1556" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/09</t>
+          <t>Core PPI MoMAPR</t>
         </is>
       </c>
       <c r="C1557" t="inlineStr"/>
       <c r="D1557" t="inlineStr">
         <is>
-          <t>-0.74M</t>
-        </is>
-      </c>
-      <c r="E1557" t="inlineStr"/>
-      <c r="F1557" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E1557" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1557" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1557" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/09</t>
+          <t>Initial Jobless ClaimsMAY/10</t>
         </is>
       </c>
       <c r="C1558" t="inlineStr"/>
       <c r="D1558" t="inlineStr">
         <is>
-          <t>0.041M</t>
-        </is>
-      </c>
-      <c r="E1558" t="inlineStr"/>
-      <c r="F1558" t="inlineStr"/>
+          <t>228K</t>
+        </is>
+      </c>
+      <c r="E1558" t="inlineStr">
+        <is>
+          <t>230K</t>
+        </is>
+      </c>
+      <c r="F1558" t="inlineStr">
+        <is>
+          <t>220.0K</t>
+        </is>
+      </c>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/09</t>
+          <t>NY Empire State Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1559" t="inlineStr"/>
       <c r="D1559" t="inlineStr">
         <is>
-          <t>-1.107M</t>
-        </is>
-      </c>
-      <c r="E1559" t="inlineStr"/>
-      <c r="F1559" t="inlineStr"/>
+          <t>-8.10</t>
+        </is>
+      </c>
+      <c r="E1559" t="inlineStr">
+        <is>
+          <t>-7.1</t>
+        </is>
+      </c>
+      <c r="F1559" t="inlineStr">
+        <is>
+          <t>-7.6</t>
+        </is>
+      </c>
       <c r="G1559" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/09</t>
+          <t>Philadelphia Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1560" t="inlineStr"/>
       <c r="D1560" t="inlineStr">
         <is>
-          <t>0.253M</t>
-        </is>
-      </c>
-      <c r="E1560" t="inlineStr"/>
-      <c r="F1560" t="inlineStr"/>
+          <t>-26.4</t>
+        </is>
+      </c>
+      <c r="E1560" t="inlineStr">
+        <is>
+          <t>-8.5</t>
+        </is>
+      </c>
+      <c r="F1560" t="inlineStr">
+        <is>
+          <t>-10</t>
+        </is>
+      </c>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/09</t>
+          <t>Retail Sales Control Group MoMAPR</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr"/>
       <c r="D1561" t="inlineStr">
         <is>
-          <t>0.123M</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E1561" t="inlineStr"/>
-      <c r="F1561" t="inlineStr"/>
+      <c r="F1561" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/09</t>
+          <t>Retail Sales Ex Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr"/>
       <c r="D1562" t="inlineStr">
         <is>
-          <t>-0.007M</t>
-        </is>
-      </c>
-      <c r="E1562" t="inlineStr"/>
-      <c r="F1562" t="inlineStr"/>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="E1562" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1562" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Continuing Jobless ClaimsMAY/03</t>
         </is>
       </c>
       <c r="C1563" t="inlineStr"/>
       <c r="D1563" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>1879K</t>
         </is>
       </c>
       <c r="E1563" t="inlineStr"/>
-      <c r="F1563" t="inlineStr"/>
+      <c r="F1563" t="inlineStr">
+        <is>
+          <t>1875.0K</t>
+        </is>
+      </c>
       <c r="G1563" t="inlineStr">
         <is>
           <t>3</t>
@@ -40999,36 +41075,60 @@
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>04:40 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Core PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1564" t="inlineStr"/>
-      <c r="D1564" t="inlineStr"/>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="E1564" t="inlineStr"/>
-      <c r="F1564" t="inlineStr"/>
+      <c r="F1564" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>Thursday May 15 2025</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageMAY/10</t>
+        </is>
+      </c>
       <c r="C1565" t="inlineStr"/>
-      <c r="D1565" t="inlineStr"/>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
       <c r="E1565" t="inlineStr"/>
-      <c r="F1565" t="inlineStr"/>
-      <c r="G1565" t="inlineStr"/>
+      <c r="F1565" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
+      <c r="G1565" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
@@ -41038,28 +41138,20 @@
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>PPI MoMAPR</t>
+          <t>Philly Fed Business ConditionsMAY</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr"/>
       <c r="D1566" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1566" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1566" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>6.9</t>
+        </is>
+      </c>
+      <c r="E1566" t="inlineStr"/>
+      <c r="F1566" t="inlineStr"/>
       <c r="G1566" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -41071,28 +41163,20 @@
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>Retail Sales MoMAPR</t>
+          <t>Philly Fed CAPEX IndexMAY</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr"/>
       <c r="D1567" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1567" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1567" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E1567" t="inlineStr"/>
+      <c r="F1567" t="inlineStr"/>
       <c r="G1567" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -41104,28 +41188,20 @@
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Core PPI MoMAPR</t>
+          <t>Philly Fed EmploymentMAY</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr"/>
       <c r="D1568" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1568" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="E1568" t="inlineStr"/>
+      <c r="F1568" t="inlineStr"/>
       <c r="G1568" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -41137,28 +41213,20 @@
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAY/10</t>
+          <t>Philly Fed New OrdersMAY</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr"/>
       <c r="D1569" t="inlineStr">
         <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1569" t="inlineStr">
-        <is>
-          <t>230K</t>
-        </is>
-      </c>
-      <c r="F1569" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
+          <t>-34.2</t>
+        </is>
+      </c>
+      <c r="E1569" t="inlineStr"/>
+      <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -41170,28 +41238,20 @@
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexMAY</t>
+          <t>Philly Fed Prices PaidMAY</t>
         </is>
       </c>
       <c r="C1570" t="inlineStr"/>
       <c r="D1570" t="inlineStr">
         <is>
-          <t>-8.10</t>
-        </is>
-      </c>
-      <c r="E1570" t="inlineStr">
-        <is>
-          <t>-7.1</t>
-        </is>
-      </c>
-      <c r="F1570" t="inlineStr">
-        <is>
-          <t>-7.6</t>
-        </is>
-      </c>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="E1570" t="inlineStr"/>
+      <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -41203,28 +41263,24 @@
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexMAY</t>
+          <t>PPIAPR</t>
         </is>
       </c>
       <c r="C1571" t="inlineStr"/>
       <c r="D1571" t="inlineStr">
         <is>
-          <t>-26.4</t>
-        </is>
-      </c>
-      <c r="E1571" t="inlineStr">
-        <is>
-          <t>-8.5</t>
-        </is>
-      </c>
+          <t>147.464</t>
+        </is>
+      </c>
+      <c r="E1571" t="inlineStr"/>
       <c r="F1571" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>147.76</t>
         </is>
       </c>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -41236,24 +41292,24 @@
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMAPR</t>
+          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
         </is>
       </c>
       <c r="C1572" t="inlineStr"/>
       <c r="D1572" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E1572" t="inlineStr"/>
       <c r="F1572" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -41265,28 +41321,24 @@
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMAPR</t>
+          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
         </is>
       </c>
       <c r="C1573" t="inlineStr"/>
       <c r="D1573" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1573" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="E1573" t="inlineStr"/>
       <c r="F1573" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -41298,19 +41350,19 @@
       </c>
       <c r="B1574" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAY/03</t>
+          <t>PPI YoYAPR</t>
         </is>
       </c>
       <c r="C1574" t="inlineStr"/>
       <c r="D1574" t="inlineStr">
         <is>
-          <t>1879K</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="E1574" t="inlineStr"/>
       <c r="F1574" t="inlineStr">
         <is>
-          <t>1875.0K</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="G1574" t="inlineStr">
@@ -41327,19 +41379,19 @@
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>Core PPI YoYAPR</t>
+          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr"/>
       <c r="D1575" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1575" t="inlineStr"/>
       <c r="F1575" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G1575" t="inlineStr">
@@ -41356,19 +41408,19 @@
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAY/10</t>
+          <t>Retail Sales YoYAPR</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr"/>
       <c r="D1576" t="inlineStr">
         <is>
-          <t>227K</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="E1576" t="inlineStr"/>
       <c r="F1576" t="inlineStr">
         <is>
-          <t>225.0K</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="G1576" t="inlineStr">
@@ -41380,72 +41432,84 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:40 AM</t>
         </is>
       </c>
       <c r="B1577" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsMAY</t>
+          <t>Fed Chair Powell Speech</t>
         </is>
       </c>
       <c r="C1577" t="inlineStr"/>
-      <c r="D1577" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
+      <c r="D1577" t="inlineStr"/>
       <c r="E1577" t="inlineStr"/>
       <c r="F1577" t="inlineStr"/>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1578">
       <c r="A1578" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1578" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexMAY</t>
+          <t>Industrial Production MoMAPR</t>
         </is>
       </c>
       <c r="C1578" t="inlineStr"/>
       <c r="D1578" t="inlineStr">
         <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1578" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1578" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="E1578" t="inlineStr"/>
-      <c r="F1578" t="inlineStr"/>
-      <c r="G1578" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1579" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentMAY</t>
+          <t>Capacity UtilizationAPR</t>
         </is>
       </c>
       <c r="C1579" t="inlineStr"/>
       <c r="D1579" t="inlineStr">
         <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="E1579" t="inlineStr"/>
-      <c r="F1579" t="inlineStr"/>
+          <t>77.8%</t>
+        </is>
+      </c>
+      <c r="E1579" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
+      <c r="F1579" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="G1579" t="inlineStr">
         <is>
           <t>3</t>
@@ -41455,22 +41519,26 @@
     <row r="1580">
       <c r="A1580" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1580" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersMAY</t>
+          <t>Industrial Production YoYAPR</t>
         </is>
       </c>
       <c r="C1580" t="inlineStr"/>
       <c r="D1580" t="inlineStr">
         <is>
-          <t>-34.2</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E1580" t="inlineStr"/>
-      <c r="F1580" t="inlineStr"/>
+      <c r="F1580" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G1580" t="inlineStr">
         <is>
           <t>3</t>
@@ -41480,22 +41548,26 @@
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidMAY</t>
+          <t>Manufacturing Production MoMAPR</t>
         </is>
       </c>
       <c r="C1581" t="inlineStr"/>
       <c r="D1581" t="inlineStr">
         <is>
-          <t>51.00</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1581" t="inlineStr"/>
-      <c r="F1581" t="inlineStr"/>
+      <c r="F1581" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1581" t="inlineStr">
         <is>
           <t>3</t>
@@ -41505,24 +41577,24 @@
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>PPIAPR</t>
+          <t>Manufacturing Production YoYAPR</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr"/>
       <c r="D1582" t="inlineStr">
         <is>
-          <t>147.464</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E1582" t="inlineStr"/>
       <c r="F1582" t="inlineStr">
         <is>
-          <t>147.76</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1582" t="inlineStr">
@@ -41534,82 +41606,94 @@
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMAPR</t>
+          <t>Business Inventories MoMMAR</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr"/>
       <c r="D1583" t="inlineStr">
         <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E1583" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F1583" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="E1583" t="inlineStr"/>
-      <c r="F1583" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYAPR</t>
+          <t>NAHB Housing Market IndexMAY</t>
         </is>
       </c>
       <c r="C1584" t="inlineStr"/>
       <c r="D1584" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1584" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E1584" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
       <c r="F1584" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
         <is>
-          <t>PPI YoYAPR</t>
+          <t>Retail Inventories Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1585" t="inlineStr"/>
       <c r="D1585" t="inlineStr">
         <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E1585" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E1585" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1585" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1585" t="inlineStr">
@@ -41621,26 +41705,22 @@
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMAPR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
         </is>
       </c>
       <c r="C1586" t="inlineStr"/>
       <c r="D1586" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>104Bcf</t>
         </is>
       </c>
       <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="F1586" t="inlineStr"/>
       <c r="G1586" t="inlineStr">
         <is>
           <t>3</t>
@@ -41650,26 +41730,22 @@
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
         <is>
-          <t>Retail Sales YoYAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1587" t="inlineStr"/>
       <c r="D1587" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E1587" t="inlineStr"/>
-      <c r="F1587" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="F1587" t="inlineStr"/>
       <c r="G1587" t="inlineStr">
         <is>
           <t>3</t>
@@ -41679,84 +41755,72 @@
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>07:40 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1588" t="inlineStr"/>
-      <c r="D1588" t="inlineStr"/>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>4.225%</t>
+        </is>
+      </c>
       <c r="E1588" t="inlineStr"/>
       <c r="F1588" t="inlineStr"/>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>Industrial Production MoMAPR</t>
+          <t>15-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr"/>
       <c r="D1589" t="inlineStr">
         <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1589" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1589" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>5.89%</t>
+        </is>
+      </c>
+      <c r="E1589" t="inlineStr"/>
+      <c r="F1589" t="inlineStr"/>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>Capacity UtilizationAPR</t>
+          <t>30-Year Mortgage RateMAY/15</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr"/>
       <c r="D1590" t="inlineStr">
         <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E1590" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="F1590" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
+          <t>6.76%</t>
+        </is>
+      </c>
+      <c r="E1590" t="inlineStr"/>
+      <c r="F1590" t="inlineStr"/>
       <c r="G1590" t="inlineStr">
         <is>
           <t>3</t>
@@ -41766,26 +41830,18 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
         <is>
-          <t>Industrial Production YoYAPR</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C1591" t="inlineStr"/>
-      <c r="D1591" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="D1591" t="inlineStr"/>
       <c r="E1591" t="inlineStr"/>
-      <c r="F1591" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="F1591" t="inlineStr"/>
       <c r="G1591" t="inlineStr">
         <is>
           <t>3</t>
@@ -41795,55 +41851,43 @@
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>01:05 PM</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMAPR</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C1592" t="inlineStr"/>
-      <c r="D1592" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D1592" t="inlineStr"/>
       <c r="E1592" t="inlineStr"/>
-      <c r="F1592" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1592" t="inlineStr"/>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYAPR</t>
+          <t>Fed Balance SheetMAY/14</t>
         </is>
       </c>
       <c r="C1593" t="inlineStr"/>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$6.71T</t>
         </is>
       </c>
       <c r="E1593" t="inlineStr"/>
-      <c r="F1593" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="F1593" t="inlineStr"/>
       <c r="G1593" t="inlineStr">
         <is>
           <t>3</t>
@@ -41853,221 +41897,225 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1594" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMMAR</t>
-        </is>
-      </c>
+          <t>Friday May 16 2025</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr"/>
       <c r="C1594" t="inlineStr"/>
-      <c r="D1594" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1594" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1594" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D1594" t="inlineStr"/>
+      <c r="E1594" t="inlineStr"/>
+      <c r="F1594" t="inlineStr"/>
+      <c r="G1594" t="inlineStr"/>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexMAY</t>
+          <t>Building Permits PrelAPR</t>
         </is>
       </c>
       <c r="C1595" t="inlineStr"/>
       <c r="D1595" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1.467M</t>
         </is>
       </c>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>1.450M</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1.45M</t>
         </is>
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMMAR</t>
+          <t>Housing StartsAPR</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr"/>
       <c r="D1596" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.324M</t>
         </is>
       </c>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>1.36M</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1597">
       <c r="A1597" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/09</t>
+          <t>Building Permits MoM PrelAPR</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr"/>
       <c r="D1597" t="inlineStr">
         <is>
-          <t>104Bcf</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1597" t="inlineStr"/>
-      <c r="F1597" t="inlineStr"/>
+      <c r="F1597" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1598">
       <c r="A1598" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1598" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Export Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1598" t="inlineStr"/>
       <c r="D1598" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E1598" t="inlineStr"/>
-      <c r="F1598" t="inlineStr"/>
+      <c r="F1598" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1599">
       <c r="A1599" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1599" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Housing Starts MoMAPR</t>
         </is>
       </c>
       <c r="C1599" t="inlineStr"/>
       <c r="D1599" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>-11.4%</t>
         </is>
       </c>
       <c r="E1599" t="inlineStr"/>
-      <c r="F1599" t="inlineStr"/>
+      <c r="F1599" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1600">
       <c r="A1600" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAY/15</t>
+          <t>Import Prices MoMAPR</t>
         </is>
       </c>
       <c r="C1600" t="inlineStr"/>
       <c r="D1600" t="inlineStr">
         <is>
-          <t>5.89%</t>
-        </is>
-      </c>
-      <c r="E1600" t="inlineStr"/>
-      <c r="F1600" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E1600" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="F1600" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAY/15</t>
+          <t>Export Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1601" t="inlineStr"/>
       <c r="D1601" t="inlineStr">
         <is>
-          <t>6.76%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1601" t="inlineStr"/>
-      <c r="F1601" t="inlineStr"/>
+      <c r="F1601" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="G1601" t="inlineStr">
         <is>
           <t>3</t>
@@ -42077,18 +42125,26 @@
     <row r="1602">
       <c r="A1602" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Import Prices YoYAPR</t>
         </is>
       </c>
       <c r="C1602" t="inlineStr"/>
-      <c r="D1602" t="inlineStr"/>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="E1602" t="inlineStr"/>
-      <c r="F1602" t="inlineStr"/>
+      <c r="F1602" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="G1602" t="inlineStr">
         <is>
           <t>3</t>
@@ -42098,43 +42154,59 @@
     <row r="1603">
       <c r="A1603" t="inlineStr">
         <is>
-          <t>01:05 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Michigan Consumer Sentiment PrelMAY</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr"/>
-      <c r="D1603" t="inlineStr"/>
-      <c r="E1603" t="inlineStr"/>
-      <c r="F1603" t="inlineStr"/>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E1603" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F1603" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1604">
       <c r="A1604" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/14</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr"/>
       <c r="D1604" t="inlineStr">
         <is>
-          <t>$6.71T</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1604" t="inlineStr"/>
-      <c r="F1604" t="inlineStr"/>
+      <c r="F1604" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1604" t="inlineStr">
         <is>
           <t>3</t>
@@ -42144,163 +42216,159 @@
     <row r="1605">
       <c r="A1605" t="inlineStr">
         <is>
-          <t>Friday May 16 2025</t>
-        </is>
-      </c>
-      <c r="B1605" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations PrelMAY</t>
+        </is>
+      </c>
       <c r="C1605" t="inlineStr"/>
-      <c r="D1605" t="inlineStr"/>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>47.3</t>
+        </is>
+      </c>
       <c r="E1605" t="inlineStr"/>
-      <c r="F1605" t="inlineStr"/>
-      <c r="G1605" t="inlineStr"/>
+      <c r="F1605" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G1605" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1606">
       <c r="A1606" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
-          <t>Building Permits PrelAPR</t>
+          <t>Michigan Current Conditions PrelMAY</t>
         </is>
       </c>
       <c r="C1606" t="inlineStr"/>
       <c r="D1606" t="inlineStr">
         <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E1606" t="inlineStr">
-        <is>
-          <t>1.450M</t>
-        </is>
-      </c>
+          <t>59.8</t>
+        </is>
+      </c>
+      <c r="E1606" t="inlineStr"/>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>1.45M</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1607">
       <c r="A1607" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
-          <t>Housing StartsAPR</t>
+          <t>Michigan Inflation Expectations PrelMAY</t>
         </is>
       </c>
       <c r="C1607" t="inlineStr"/>
       <c r="D1607" t="inlineStr">
         <is>
-          <t>1.324M</t>
-        </is>
-      </c>
-      <c r="E1607" t="inlineStr">
-        <is>
-          <t>1.36M</t>
-        </is>
-      </c>
+          <t>6.5%</t>
+        </is>
+      </c>
+      <c r="E1607" t="inlineStr"/>
       <c r="F1607" t="inlineStr">
         <is>
-          <t>1.31M</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1608">
       <c r="A1608" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelAPR</t>
+          <t>Baker Hughes Oil Rig CountMAY/16</t>
         </is>
       </c>
       <c r="C1608" t="inlineStr"/>
       <c r="D1608" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>474</t>
         </is>
       </c>
       <c r="E1608" t="inlineStr"/>
-      <c r="F1608" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="F1608" t="inlineStr"/>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
-          <t>Export Prices MoMAPR</t>
+          <t>Baker Hughes Total Rigs CountMAY/16</t>
         </is>
       </c>
       <c r="C1609" t="inlineStr"/>
       <c r="D1609" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>578</t>
         </is>
       </c>
       <c r="E1609" t="inlineStr"/>
-      <c r="F1609" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1609" t="inlineStr"/>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>Housing Starts MoMAPR</t>
+          <t>Net Long-term TIC FlowsMAR</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr"/>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>-11.4%</t>
+          <t>$112B</t>
         </is>
       </c>
       <c r="E1610" t="inlineStr"/>
-      <c r="F1610" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="F1610" t="inlineStr"/>
       <c r="G1610" t="inlineStr">
         <is>
           <t>2</t>
@@ -42310,59 +42378,47 @@
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>Import Prices MoMAPR</t>
+          <t>Foreign Bond InvestmentMAR</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr"/>
       <c r="D1611" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1611" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1611" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+          <t>$106.2B</t>
+        </is>
+      </c>
+      <c r="E1611" t="inlineStr"/>
+      <c r="F1611" t="inlineStr"/>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
-          <t>Export Prices YoYAPR</t>
+          <t>Overall Net Capital FlowsMAR</t>
         </is>
       </c>
       <c r="C1612" t="inlineStr"/>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>$284.7B</t>
         </is>
       </c>
       <c r="E1612" t="inlineStr"/>
-      <c r="F1612" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="F1612" t="inlineStr"/>
       <c r="G1612" t="inlineStr">
         <is>
           <t>3</t>
@@ -42372,64 +42428,28 @@
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1613" t="inlineStr">
-        <is>
-          <t>Import Prices YoYAPR</t>
-        </is>
-      </c>
+          <t>Sunday May 18 2025</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr"/>
       <c r="C1613" t="inlineStr"/>
-      <c r="D1613" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="D1613" t="inlineStr"/>
       <c r="E1613" t="inlineStr"/>
-      <c r="F1613" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1613" t="inlineStr"/>
+      <c r="G1613" t="inlineStr"/>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1614" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAY</t>
-        </is>
-      </c>
+          <t>Monday May 19 2025</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr"/>
       <c r="C1614" t="inlineStr"/>
-      <c r="D1614" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1614" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F1614" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D1614" t="inlineStr"/>
+      <c r="E1614" t="inlineStr"/>
+      <c r="F1614" t="inlineStr"/>
+      <c r="G1614" t="inlineStr"/>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
@@ -42439,19 +42459,19 @@
       </c>
       <c r="B1615" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAY</t>
+          <t>CB Leading Index MoMAPR</t>
         </is>
       </c>
       <c r="C1615" t="inlineStr"/>
       <c r="D1615" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E1615" t="inlineStr"/>
       <c r="F1615" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1615" t="inlineStr">
@@ -42463,26 +42483,18 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAY</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1616" t="inlineStr"/>
-      <c r="D1616" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
+      <c r="D1616" t="inlineStr"/>
       <c r="E1616" t="inlineStr"/>
-      <c r="F1616" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="F1616" t="inlineStr"/>
       <c r="G1616" t="inlineStr">
         <is>
           <t>3</t>
@@ -42492,26 +42504,18 @@
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAY</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr"/>
-      <c r="D1617" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
+      <c r="D1617" t="inlineStr"/>
       <c r="E1617" t="inlineStr"/>
-      <c r="F1617" t="inlineStr">
-        <is>
-          <t>59.5</t>
-        </is>
-      </c>
+      <c r="F1617" t="inlineStr"/>
       <c r="G1617" t="inlineStr">
         <is>
           <t>3</t>
@@ -42521,266 +42525,15 @@
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1618" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAY</t>
-        </is>
-      </c>
+          <t>Tuesday May 20 2025</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr"/>
       <c r="C1618" t="inlineStr"/>
-      <c r="D1618" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
+      <c r="D1618" t="inlineStr"/>
       <c r="E1618" t="inlineStr"/>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1619">
-      <c r="A1619" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1619" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C1619" t="inlineStr"/>
-      <c r="D1619" t="inlineStr">
-        <is>
-          <t>474</t>
-        </is>
-      </c>
-      <c r="E1619" t="inlineStr"/>
-      <c r="F1619" t="inlineStr"/>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1620">
-      <c r="A1620" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1620" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/16</t>
-        </is>
-      </c>
-      <c r="C1620" t="inlineStr"/>
-      <c r="D1620" t="inlineStr">
-        <is>
-          <t>578</t>
-        </is>
-      </c>
-      <c r="E1620" t="inlineStr"/>
-      <c r="F1620" t="inlineStr"/>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1621">
-      <c r="A1621" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1621" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C1621" t="inlineStr"/>
-      <c r="D1621" t="inlineStr">
-        <is>
-          <t>$112B</t>
-        </is>
-      </c>
-      <c r="E1621" t="inlineStr"/>
-      <c r="F1621" t="inlineStr"/>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1622">
-      <c r="A1622" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1622" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentMAR</t>
-        </is>
-      </c>
-      <c r="C1622" t="inlineStr"/>
-      <c r="D1622" t="inlineStr">
-        <is>
-          <t>$106.2B</t>
-        </is>
-      </c>
-      <c r="E1622" t="inlineStr"/>
-      <c r="F1622" t="inlineStr"/>
-      <c r="G1622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1623">
-      <c r="A1623" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1623" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsMAR</t>
-        </is>
-      </c>
-      <c r="C1623" t="inlineStr"/>
-      <c r="D1623" t="inlineStr">
-        <is>
-          <t>$284.7B</t>
-        </is>
-      </c>
-      <c r="E1623" t="inlineStr"/>
-      <c r="F1623" t="inlineStr"/>
-      <c r="G1623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1624">
-      <c r="A1624" t="inlineStr">
-        <is>
-          <t>Sunday May 18 2025</t>
-        </is>
-      </c>
-      <c r="B1624" t="inlineStr"/>
-      <c r="C1624" t="inlineStr"/>
-      <c r="D1624" t="inlineStr"/>
-      <c r="E1624" t="inlineStr"/>
-      <c r="F1624" t="inlineStr"/>
-      <c r="G1624" t="inlineStr"/>
-    </row>
-    <row r="1625">
-      <c r="A1625" t="inlineStr">
-        <is>
-          <t>Monday May 19 2025</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr"/>
-      <c r="C1625" t="inlineStr"/>
-      <c r="D1625" t="inlineStr"/>
-      <c r="E1625" t="inlineStr"/>
-      <c r="F1625" t="inlineStr"/>
-      <c r="G1625" t="inlineStr"/>
-    </row>
-    <row r="1626">
-      <c r="A1626" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1626" t="inlineStr"/>
-      <c r="D1626" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E1626" t="inlineStr"/>
-      <c r="F1626" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1627">
-      <c r="A1627" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1627" t="inlineStr"/>
-      <c r="D1627" t="inlineStr"/>
-      <c r="E1627" t="inlineStr"/>
-      <c r="F1627" t="inlineStr"/>
-      <c r="G1627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1628" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1628" t="inlineStr"/>
-      <c r="D1628" t="inlineStr"/>
-      <c r="E1628" t="inlineStr"/>
-      <c r="F1628" t="inlineStr"/>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1629">
-      <c r="A1629" t="inlineStr">
-        <is>
-          <t>Tuesday May 20 2025</t>
-        </is>
-      </c>
-      <c r="B1629" t="inlineStr"/>
-      <c r="C1629" t="inlineStr"/>
-      <c r="D1629" t="inlineStr"/>
-      <c r="E1629" t="inlineStr"/>
-      <c r="F1629" t="inlineStr"/>
-      <c r="G1629" t="inlineStr"/>
+      <c r="F1618" t="inlineStr"/>
+      <c r="G1618" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
